--- a/Transfer/FileUploads/Exhibit 29.xlsx
+++ b/Transfer/FileUploads/Exhibit 29.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\Desktop\fubon\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="7830"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterate="1" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -97,11 +102,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,7 +191,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,6 +208,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 15" xfId="2"/>
@@ -213,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -261,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +304,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,13 +551,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -540,7 +584,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -611,7 +655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -682,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -753,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -824,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -895,7 +939,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -962,11 +1006,11 @@
       <c r="V7" s="7">
         <v>5.4770000000000003</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1033,11 +1077,11 @@
       <c r="V8" s="7">
         <v>4.6180000000000003</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1104,11 +1148,11 @@
       <c r="V9" s="7">
         <v>5.1289999999999996</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1223,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1365,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1436,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1507,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1578,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1605,7 +1649,7 @@
         <v>2.0449999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1720,7 @@
         <v>3.0550000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1747,7 +1791,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1862,7 @@
         <v>4.8140000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1889,7 +1933,7 @@
         <v>10.289</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +2004,7 @@
         <v>19.387</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2031,7 +2075,7 @@
         <v>25.818000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
@@ -2070,7 +2114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,7 +2127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
